--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.5/avg_0.003_scores.xlsx
@@ -133,10 +133,10 @@
     <t>better</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>hope</t>
@@ -1607,13 +1607,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.7324561403508771</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L27">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="M27">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="N27">
         <v>0.9399999999999999</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1633,25 +1633,25 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M28">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1815,25 +1815,25 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.6441717791411042</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L35">
         <v>210</v>
       </c>
       <c r="M35">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="10:17">
